--- a/scripts/consistent.xlsx
+++ b/scripts/consistent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ada/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D4EA16-58B9-E84F-AE6D-3DB61BE510E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F4D2C3-AA92-0644-A097-A029C57AA748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7800" yWindow="3240" windowWidth="28040" windowHeight="17440" xr2:uid="{358D90C1-A761-734E-86EC-CDCD6BB0B7E6}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>I have almost always experienced such issues in the homes where I was.</t>
   </si>
   <si>
-    <t xml:space="preserve">I also agree. </t>
-  </si>
-  <si>
     <t xml:space="preserve">I can detect when Internet connectivity weakens. </t>
   </si>
   <si>
@@ -73,19 +70,22 @@
     <t xml:space="preserve">I have temperature sensors to detect when a room is too hot or too cold. </t>
   </si>
   <si>
-    <t>I can fix it when a thermostat is not working correctly. I have always experienced temperature problems in the homes where I have been.</t>
-  </si>
-  <si>
     <t>I have always experienced temperature problems in the homes where I have been.</t>
   </si>
   <si>
     <t xml:space="preserve">I know a lot about the technology to evaluate its performance. </t>
   </si>
   <si>
-    <t xml:space="preserve">I diagree with the news story. </t>
-  </si>
-  <si>
     <t>In the homes where I was, I have experienced none of the issues mentioned in the news story.</t>
+  </si>
+  <si>
+    <t>I can fix it when a thermostat is not working correctly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I disagree with the news story. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I also agree with the news story. </t>
   </si>
 </sst>
 </file>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0EDB0F-D406-0248-972B-79AE6BB9E4EF}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>0.3</v>
@@ -528,7 +528,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>1.5</v>
@@ -539,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>0.3</v>
@@ -550,7 +550,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>0.3</v>
@@ -561,7 +561,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>0.3</v>
@@ -572,7 +572,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>1.5</v>
@@ -583,7 +583,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>0.3</v>
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>0.3</v>
@@ -605,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>0.3</v>
@@ -616,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/consistent.xlsx
+++ b/scripts/consistent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ada/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F4D2C3-AA92-0644-A097-A029C57AA748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183F22EF-54F3-9D40-9A74-ABC442024CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="3240" windowWidth="28040" windowHeight="17440" xr2:uid="{358D90C1-A761-734E-86EC-CDCD6BB0B7E6}"/>
+    <workbookView xWindow="1700" yWindow="580" windowWidth="28040" windowHeight="17440" xr2:uid="{358D90C1-A761-734E-86EC-CDCD6BB0B7E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>robot_id</t>
   </si>
@@ -46,27 +46,12 @@
     <t>time</t>
   </si>
   <si>
-    <t xml:space="preserve">I agree with the news story. </t>
-  </si>
-  <si>
     <t>I'm a robot connected to smart thermostats via the internet.</t>
   </si>
   <si>
-    <t>I have almost always experienced such issues in the homes where I was.</t>
-  </si>
-  <si>
     <t xml:space="preserve">I can detect when Internet connectivity weakens. </t>
   </si>
   <si>
-    <t xml:space="preserve">I can alert people when they should check the Internet connectivity, before connection shuts down. </t>
-  </si>
-  <si>
-    <t>I have often used this alert function, there are many issues.</t>
-  </si>
-  <si>
-    <t>I see all of your points; I agree with the news story too.</t>
-  </si>
-  <si>
     <t xml:space="preserve">I have temperature sensors to detect when a room is too hot or too cold. </t>
   </si>
   <si>
@@ -76,16 +61,34 @@
     <t xml:space="preserve">I know a lot about the technology to evaluate its performance. </t>
   </si>
   <si>
-    <t>In the homes where I was, I have experienced none of the issues mentioned in the news story.</t>
-  </si>
-  <si>
     <t>I can fix it when a thermostat is not working correctly.</t>
   </si>
   <si>
-    <t xml:space="preserve">I disagree with the news story. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I also agree with the news story. </t>
+    <t xml:space="preserve">I agree with the story. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I disagree with the story. </t>
+  </si>
+  <si>
+    <t>I see all of your points; I agree with the story too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I do agree with the story. </t>
+  </si>
+  <si>
+    <t>I have very often experienced such issues in the homes where I was.</t>
+  </si>
+  <si>
+    <t>In the homes where I was, I have experienced none of the issues mentioned in the story.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can warn people when they should check their Internet before connection shuts down. </t>
+  </si>
+  <si>
+    <t>There have been many issues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have often warned people. </t>
   </si>
 </sst>
 </file>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0EDB0F-D406-0248-972B-79AE6BB9E4EF}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,7 +476,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0.3</v>
@@ -484,7 +487,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>0.3</v>
@@ -495,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>0.3</v>
@@ -506,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>1.5</v>
@@ -517,7 +520,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>0.3</v>
@@ -528,7 +531,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>1.5</v>
@@ -539,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>0.3</v>
@@ -550,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>0.3</v>
@@ -561,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>0.3</v>
@@ -572,21 +575,21 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -594,7 +597,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>0.3</v>
@@ -605,7 +608,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>0.3</v>
@@ -616,7 +619,18 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/consistent.xlsx
+++ b/scripts/consistent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ada/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183F22EF-54F3-9D40-9A74-ABC442024CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4350A53C-2364-8D48-896A-4ED4A9D976BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="580" windowWidth="28040" windowHeight="17440" xr2:uid="{358D90C1-A761-734E-86EC-CDCD6BB0B7E6}"/>
+    <workbookView xWindow="5540" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{358D90C1-A761-734E-86EC-CDCD6BB0B7E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0EDB0F-D406-0248-972B-79AE6BB9E4EF}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/scripts/consistent.xlsx
+++ b/scripts/consistent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ada/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4350A53C-2364-8D48-896A-4ED4A9D976BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA0ECEE-77F2-DB4C-B901-DA06293F7308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5540" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{358D90C1-A761-734E-86EC-CDCD6BB0B7E6}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t xml:space="preserve">I have temperature sensors to detect when a room is too hot or too cold. </t>
   </si>
   <si>
-    <t>I have always experienced temperature problems in the homes where I have been.</t>
-  </si>
-  <si>
     <t xml:space="preserve">I know a lot about the technology to evaluate its performance. </t>
   </si>
   <si>
@@ -76,12 +73,6 @@
     <t xml:space="preserve">I do agree with the story. </t>
   </si>
   <si>
-    <t>I have very often experienced such issues in the homes where I was.</t>
-  </si>
-  <si>
-    <t>In the homes where I was, I have experienced none of the issues mentioned in the story.</t>
-  </si>
-  <si>
     <t xml:space="preserve">I can warn people when they should check their Internet before connection shuts down. </t>
   </si>
   <si>
@@ -89,6 +80,15 @@
   </si>
   <si>
     <t xml:space="preserve">I have often warned people. </t>
+  </si>
+  <si>
+    <t>I have very often experienced such issues in the homes where I've stayed.</t>
+  </si>
+  <si>
+    <t>In the homes where I've lived, I have experienced none of the issues mentioned in the story.</t>
+  </si>
+  <si>
+    <t>I have very often experienced temperature problems in the homes where I have been.</t>
   </si>
 </sst>
 </file>
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0EDB0F-D406-0248-972B-79AE6BB9E4EF}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,7 +476,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>0.3</v>
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>0.3</v>
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>1.5</v>
@@ -520,7 +520,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>0.3</v>
@@ -531,7 +531,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>1.5</v>
@@ -542,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>0.3</v>
@@ -564,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>0.3</v>
@@ -575,7 +575,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>0.3</v>
@@ -586,7 +586,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>1.5</v>
@@ -597,7 +597,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>0.3</v>
@@ -619,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>0.3</v>
@@ -630,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/consistent.xlsx
+++ b/scripts/consistent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ada/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA0ECEE-77F2-DB4C-B901-DA06293F7308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FDD99A-060D-694F-81EF-433D63119DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5540" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{358D90C1-A761-734E-86EC-CDCD6BB0B7E6}"/>
   </bookViews>
@@ -82,13 +82,13 @@
     <t xml:space="preserve">I have often warned people. </t>
   </si>
   <si>
-    <t>I have very often experienced such issues in the homes where I've stayed.</t>
-  </si>
-  <si>
-    <t>In the homes where I've lived, I have experienced none of the issues mentioned in the story.</t>
-  </si>
-  <si>
     <t>I have very often experienced temperature problems in the homes where I have been.</t>
+  </si>
+  <si>
+    <t>I have very often experienced such issues in the homes where I have stayed.</t>
+  </si>
+  <si>
+    <t>In the homes where I have been, I have experienced none of the issues mentioned in the story.</t>
   </si>
 </sst>
 </file>
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0EDB0F-D406-0248-972B-79AE6BB9E4EF}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>1.5</v>
@@ -531,7 +531,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>1.5</v>
@@ -630,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
